--- a/8queens-louis.xlsx
+++ b/8queens-louis.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23117"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14660" tabRatio="500"/>
+    <workbookView xWindow="880" yWindow="-20" windowWidth="24240" windowHeight="18560" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Predicted comparison count" sheetId="2" r:id="rId1"/>
+    <sheet name="queens-louis-analysis" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
   <si>
     <t>Queens</t>
   </si>
@@ -46,13 +48,136 @@
   </si>
   <si>
     <t>Estimate</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Comparisons</t>
+  </si>
+  <si>
+    <t>Solutions</t>
+  </si>
+  <si>
+    <t>Total calls</t>
+  </si>
+  <si>
+    <t>Calls k=0</t>
+  </si>
+  <si>
+    <t>Calls k=1</t>
+  </si>
+  <si>
+    <t>Analysis of queens-louis</t>
+  </si>
+  <si>
+    <t>Calls k=2</t>
+  </si>
+  <si>
+    <t>Calls k=3</t>
+  </si>
+  <si>
+    <t>Calls k=4</t>
+  </si>
+  <si>
+    <t>Calls k=5</t>
+  </si>
+  <si>
+    <t>Calls k=6</t>
+  </si>
+  <si>
+    <t>Calls k=7</t>
+  </si>
+  <si>
+    <t>Predicted comparison count</t>
+  </si>
+  <si>
+    <t>Time millis</t>
+  </si>
+  <si>
+    <t>Analysis of queens-louis for different values of n - actual values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For (queens-louis n), number of calls to (queens-cols k) is n^(n-k) </t>
+  </si>
+  <si>
+    <t>This can be seen intuitively as each call makes n recursive calls</t>
+  </si>
+  <si>
+    <t>solutions</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>Comparison count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calls to (queen-cols k) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparisons by (queens-cols k) </t>
+  </si>
+  <si>
+    <t>Total comparisons</t>
+  </si>
+  <si>
+    <t>Predicted comparison count for queens-louis</t>
+  </si>
+  <si>
+    <t>Slow down for n=8</t>
+  </si>
+  <si>
+    <t>Calculated using fast (queens n) version</t>
+  </si>
+  <si>
+    <t>Predicted comparison count for queens</t>
+  </si>
+  <si>
+    <t>Predicted time for queens 8</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>Calls k=8</t>
+  </si>
+  <si>
+    <t>n due to inner loop</t>
+  </si>
+  <si>
+    <t>k (or k-1) due to number of positions in each solution</t>
+  </si>
+  <si>
+    <t>For (queens-cols k), number of comparisons is (count (queens k-1)) *(k-1) * n</t>
+  </si>
+  <si>
+    <t>Actual time</t>
+  </si>
+  <si>
+    <t>mins</t>
+  </si>
+  <si>
+    <t>Actual slow down</t>
+  </si>
+  <si>
+    <t>Possible solution count for (queens-cols k) for n=8</t>
+  </si>
+  <si>
+    <t>Macbook</t>
+  </si>
+  <si>
+    <t>Mac Mini</t>
+  </si>
+  <si>
+    <t>millis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -84,13 +209,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -102,7 +261,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -128,15 +287,98 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="101">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -149,6 +391,44 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -161,6 +441,44 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -490,10 +808,1039 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="25.83203125" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="30.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="5" customFormat="1" ht="25">
+      <c r="A1" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20">
+      <c r="A3" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="20">
+      <c r="A17" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="B29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="B30">
+        <f>$C28</f>
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <f>IF(B30=0,0,VLOOKUP(B30-1,$B$7:$C$14,2))</f>
+        <v>312</v>
+      </c>
+      <c r="E30">
+        <f>D30*$C$28*(B30-1)</f>
+        <v>17472</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ref="F30:F38" si="0">C30*E30</f>
+        <v>17472</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="B31">
+        <f>MAX(B30-1,0)</f>
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <f>IF(B31=0,0,$C$28*C30)</f>
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ref="D31:D38" si="1">IF(B31=0,0,VLOOKUP(B31-1,$B$7:$C$14,2))</f>
+        <v>550</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ref="E31:E38" si="2">D31*$C$28*(B31-1)</f>
+        <v>26400</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>211200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="B32">
+        <f t="shared" ref="B32:B38" si="3">MAX(B31-1,0)</f>
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ref="C32:C38" si="4">IF(B32=0,0,$C$28*C31)</f>
+        <v>64</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>568</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>22720</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>1454080</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="B33">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="4"/>
+        <v>512</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>344</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>11008</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>5636096</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="B34">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="4"/>
+        <v>4096</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>3360</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>13762560</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="B35">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="4"/>
+        <v>32768</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="2"/>
+        <v>672</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>22020096</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="B36">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="4"/>
+        <v>262144</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>16777216</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="B37">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="4"/>
+        <v>2097152</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="B38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="11">
+        <f>SUM(F30:F38)</f>
+        <v>59878720</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="20">
+      <c r="A44" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="B47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="8">
+        <f>$C$28</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="B48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49">
+        <f>C47</f>
+        <v>8</v>
+      </c>
+      <c r="D49">
+        <f>IF(B49=0,0,VLOOKUP(B49-1,$B$7:$C$14,2))</f>
+        <v>312</v>
+      </c>
+      <c r="E49">
+        <f>D49*$C$47*(B49-1)</f>
+        <v>17472</v>
+      </c>
+      <c r="F49">
+        <f>E49</f>
+        <v>17472</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50">
+        <f>MAX(B49-1,0)</f>
+        <v>7</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ref="D50:D57" si="5">IF(B50=0,0,VLOOKUP(B50-1,$B$7:$C$14,2))</f>
+        <v>550</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ref="E50:E56" si="6">D50*$C$47*(B50-1)</f>
+        <v>26400</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ref="F50:F57" si="7">E50</f>
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51">
+        <f t="shared" ref="B51:B57" si="8">MAX(B50-1,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="5"/>
+        <v>568</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="6"/>
+        <v>22720</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="7"/>
+        <v>22720</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="5"/>
+        <v>344</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="6"/>
+        <v>11008</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="7"/>
+        <v>11008</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="5"/>
+        <v>140</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="6"/>
+        <v>3360</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="7"/>
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="6"/>
+        <v>672</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="7"/>
+        <v>672</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="7"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ref="E57" si="9">D57*$C$47</f>
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="9">
+        <f>SUM(E49:E57)</f>
+        <v>81696</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="F60">
+        <v>81696</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="C63" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63" s="10">
+        <f>F41/F59</f>
+        <v>732.9455542499021</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" ht="20">
+      <c r="C66" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6">
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6">
+      <c r="C68" t="s">
+        <v>37</v>
+      </c>
+      <c r="D68">
+        <f>D67*D63/60</f>
+        <v>5.2527764721242978</v>
+      </c>
+      <c r="E68" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6">
+      <c r="C69" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D69" s="1">
+        <v>954131</v>
+      </c>
+      <c r="E69" s="1">
+        <f>D69/1000/60</f>
+        <v>15.902183333333333</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6">
+      <c r="C70" t="s">
+        <v>45</v>
+      </c>
+      <c r="D70">
+        <f>D69/D67/1000</f>
+        <v>2218.9093023255814</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6" ht="20">
+      <c r="C73" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6">
+      <c r="C74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74">
+        <v>165</v>
+      </c>
+      <c r="E74" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6">
+      <c r="C75" t="s">
+        <v>37</v>
+      </c>
+      <c r="D75">
+        <f>D63*D74/60000</f>
+        <v>2.0156002741872308</v>
+      </c>
+      <c r="E75" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6">
+      <c r="C76" t="s">
+        <v>43</v>
+      </c>
+      <c r="D76">
+        <v>455666</v>
+      </c>
+      <c r="E76">
+        <f>D76/60000</f>
+        <v>7.5944333333333329</v>
+      </c>
+      <c r="F76" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" spans="3:6">
+      <c r="C77" t="s">
+        <v>45</v>
+      </c>
+      <c r="D77">
+        <f>D76/D74</f>
+        <v>2761.6121212121211</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="12" max="12" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25">
+      <c r="A1" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>7</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>40</v>
+      </c>
+      <c r="M8">
+        <v>27</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>256</v>
+      </c>
+      <c r="D9">
+        <v>64</v>
+      </c>
+      <c r="E9">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>341</v>
+      </c>
+      <c r="M9">
+        <v>496</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>3125</v>
+      </c>
+      <c r="D10">
+        <v>625</v>
+      </c>
+      <c r="E10">
+        <v>125</v>
+      </c>
+      <c r="F10">
+        <v>25</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>7415</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>46656</v>
+      </c>
+      <c r="D11">
+        <v>7776</v>
+      </c>
+      <c r="E11">
+        <v>1296</v>
+      </c>
+      <c r="F11">
+        <v>216</v>
+      </c>
+      <c r="G11">
+        <v>36</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>129648</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>823543</v>
+      </c>
+      <c r="D12">
+        <v>117649</v>
+      </c>
+      <c r="E12">
+        <v>16807</v>
+      </c>
+      <c r="F12">
+        <v>2401</v>
+      </c>
+      <c r="G12">
+        <v>343</v>
+      </c>
+      <c r="H12">
+        <v>49</v>
+      </c>
+      <c r="I12">
+        <v>7</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>16777216</v>
+      </c>
+      <c r="D13">
+        <v>2097152</v>
+      </c>
+      <c r="E13">
+        <v>262144</v>
+      </c>
+      <c r="F13">
+        <v>32768</v>
+      </c>
+      <c r="G13">
+        <v>4096</v>
+      </c>
+      <c r="H13">
+        <v>512</v>
+      </c>
+      <c r="I13">
+        <v>64</v>
+      </c>
+      <c r="J13">
+        <v>8</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>59878720</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
